--- a/Archivos/SGC-000614 Relación de Acuses de Recibo Enviados.xlsx
+++ b/Archivos/SGC-000614 Relación de Acuses de Recibo Enviados.xlsx
@@ -1892,23 +1892,63 @@
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>54000</t>
+          <t>850000</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="inlineStr"/>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
-      <c r="E11" s="3" t="inlineStr"/>
-      <c r="F11" s="3" t="inlineStr"/>
-      <c r="G11" s="3" t="inlineStr"/>
-      <c r="H11" s="3" t="inlineStr"/>
-      <c r="I11" s="3" t="inlineStr"/>
-      <c r="J11" s="90" t="inlineStr"/>
-      <c r="K11" s="3" t="inlineStr"/>
-      <c r="L11" s="3" t="inlineStr"/>
+      <c r="B11" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>MundiPharma</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>16004343</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>NADRO CEDIS</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>Cuautitlan Izcalli</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>EM</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2023 11:00 PM</t>
+        </is>
+      </c>
+      <c r="I11" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2023</t>
+        </is>
+      </c>
+      <c r="J11" s="90" t="n">
+        <v>45051</v>
+      </c>
+      <c r="K11" s="3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L11" s="3" t="inlineStr">
+        <is>
+          <t>850000</t>
+        </is>
+      </c>
       <c r="M11" s="3" t="inlineStr"/>
     </row>
     <row r="12">

--- a/Archivos/SGC-000614 Relación de Acuses de Recibo Enviados.xlsx
+++ b/Archivos/SGC-000614 Relación de Acuses de Recibo Enviados.xlsx
@@ -1874,12 +1874,12 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>07/12/2022 05:00 PM</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>06/12/2022</t>
+          <t>07/12/2022 05:00 PM</t>
         </is>
       </c>
       <c r="J10" s="90" t="n">
@@ -1892,63 +1892,23 @@
       </c>
       <c r="L10" s="3" t="inlineStr">
         <is>
-          <t>850000</t>
+          <t>900</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>MundiPharma</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>16004343</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>NADRO CEDIS</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>Cuautitlan Izcalli</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>EM</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>14/01/2023 11:00 PM</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="inlineStr">
-        <is>
-          <t>14/01/2023</t>
-        </is>
-      </c>
-      <c r="J11" s="90" t="n">
-        <v>45051</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L11" s="3" t="inlineStr">
-        <is>
-          <t>850000</t>
-        </is>
-      </c>
+      <c r="B11" s="3" t="inlineStr"/>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
+      <c r="E11" s="3" t="inlineStr"/>
+      <c r="F11" s="3" t="inlineStr"/>
+      <c r="G11" s="3" t="inlineStr"/>
+      <c r="H11" s="3" t="inlineStr"/>
+      <c r="I11" s="3" t="inlineStr"/>
+      <c r="J11" s="90" t="inlineStr"/>
+      <c r="K11" s="3" t="inlineStr"/>
+      <c r="L11" s="3" t="inlineStr"/>
       <c r="M11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
